--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_498__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_498__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>46.89233016967773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1953730434179306</c:v>
+                  <c:v>-0.1953724324703217</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42.08343505859375</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>59.72500610351562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1999983936548233</c:v>
+                  <c:v>0.1999977827072144</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>36.79018020629883</c:v>
@@ -6020,46 +6020,46 @@
                   <c:v>48.06875991821289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.6253659129142761</c:v>
+                  <c:v>-0.6253646612167358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.076490163803101</c:v>
+                  <c:v>-3.076488971710205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.59842836856842</c:v>
+                  <c:v>1.598429083824158</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42.53007125854492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.53610992431641</c:v>
+                  <c:v>40.53610610961914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7849639654159546</c:v>
+                  <c:v>0.7849627137184143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.96786880493164</c:v>
+                  <c:v>41.96785736083984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5368039011955261</c:v>
+                  <c:v>-0.5368044972419739</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.006826296448707581</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.55123138427734</c:v>
+                  <c:v>35.55123519897461</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.180245757102966</c:v>
+                  <c:v>-1.180244565010071</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.88681411743164</c:v>
+                  <c:v>26.88681030273438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.58143424987793</c:v>
+                  <c:v>8.581436157226562</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.878296136856079</c:v>
+                  <c:v>3.878299474716187</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.3252703547477722</c:v>
@@ -6083,19 +6083,19 @@
                   <c:v>41.78662490844727</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.374627947807312</c:v>
+                  <c:v>-0.3746285736560822</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.7642026543617249</c:v>
+                  <c:v>-0.7642032504081726</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.006826296448707581</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.7247876524925232</c:v>
+                  <c:v>-0.7247883081436157</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.01660805568099022</c:v>
+                  <c:v>0.01660867035388947</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-0.5404911637306213</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>-0.2573708593845367</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38.45027923583984</c:v>
+                  <c:v>38.45027542114258</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>35.45222091674805</c:v>
@@ -6122,10 +6122,10 @@
                   <c:v>40.26728057861328</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.45302200317383</c:v>
+                  <c:v>50.45302963256836</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8707736730575562</c:v>
+                  <c:v>0.8707742691040039</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.900459766387939</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>2.775244951248169</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51.31953811645508</c:v>
+                  <c:v>51.31952667236328</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.619822084903717</c:v>
@@ -6143,22 +6143,22 @@
                   <c:v>41.92340087890625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59.61948776245117</c:v>
+                  <c:v>59.61948013305664</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.2273054271936417</c:v>
+                  <c:v>-0.2273060381412506</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.12014389038086</c:v>
+                  <c:v>48.12013244628906</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.977667570114136</c:v>
+                  <c:v>-1.97766637802124</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44.29853439331055</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.4098614454269409</c:v>
+                  <c:v>-0.4098608195781708</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.3142208456993103</c:v>
@@ -6170,7 +6170,7 @@
                   <c:v>0.006826296448707581</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.308319091796875</c:v>
+                  <c:v>3.30832052230835</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.006826296448707581</c:v>
@@ -6179,25 +6179,25 @@
                   <c:v>1.473819494247437</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.99936676025391</c:v>
+                  <c:v>17.99937438964844</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.5152174830436707</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>48.28387069702148</c:v>
+                  <c:v>48.28387832641602</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>47.67083358764648</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45.88753509521484</c:v>
+                  <c:v>45.88752746582031</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>41.90740966796875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>47.05622482299805</c:v>
+                  <c:v>47.05623626708984</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>50.79269790649414</c:v>
@@ -6209,10 +6209,10 @@
                   <c:v>56.92346954345703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42.45121383666992</c:v>
+                  <c:v>42.45121765136719</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.120532274246216</c:v>
+                  <c:v>-2.12053370475769</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>17.66751861572266</c:v>
@@ -6221,43 +6221,43 @@
                   <c:v>51.75892639160156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.60568428039551</c:v>
+                  <c:v>24.60568046569824</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>38.87054061889648</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46.22294998168945</c:v>
+                  <c:v>46.22293853759766</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>52.76888656616211</c:v>
+                  <c:v>52.76889419555664</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.03333030268549919</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.583553314208984</c:v>
+                  <c:v>4.583552837371826</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.3560608327388763</c:v>
+                  <c:v>-0.3560620546340942</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18.7693042755127</c:v>
+                  <c:v>18.76930618286133</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.006826296448707581</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.80744934082031</c:v>
+                  <c:v>45.80746078491211</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.4256142973899841</c:v>
+                  <c:v>-0.4256148934364319</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>-0.3688919842243195</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>30.90867614746094</c:v>
+                  <c:v>30.90866851806641</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-3.207342147827148</c:v>
@@ -6269,19 +6269,19 @@
                   <c:v>0.006826296448707581</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.101580373942852</c:v>
+                  <c:v>-0.1015809923410416</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43.82253646850586</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>57.71590042114258</c:v>
+                  <c:v>57.71588897705078</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>41.62723922729492</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36.26844787597656</c:v>
+                  <c:v>36.26844024658203</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.006826296448707581</c:v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1953730434179306</v>
+        <v>-0.1953724324703217</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1999983936548233</v>
+        <v>0.1999977827072144</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.6253659129142761</v>
+        <v>-0.6253646612167358</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-3.076490163803101</v>
+        <v>-3.076488971710205</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>1.59842836856842</v>
+        <v>1.598429083824158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.53610992431641</v>
+        <v>40.53610610961914</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7849639654159546</v>
+        <v>0.7849627137184143</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>41.96786880493164</v>
+        <v>41.96785736083984</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.5368039011955261</v>
+        <v>-0.5368044972419739</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>35.55123138427734</v>
+        <v>35.55123519897461</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-1.180245757102966</v>
+        <v>-1.180244565010071</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>26.88681411743164</v>
+        <v>26.88681030273438</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.58143424987793</v>
+        <v>8.581436157226562</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.878296136856079</v>
+        <v>3.878299474716187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.374627947807312</v>
+        <v>-0.3746285736560822</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.7642026543617249</v>
+        <v>-0.7642032504081726</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.7247876524925232</v>
+        <v>-0.7247883081436157</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.01660805568099022</v>
+        <v>0.01660867035388947</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.8156</v>
       </c>
       <c r="F41">
-        <v>38.45027923583984</v>
+        <v>38.45027542114258</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>50.45302200317383</v>
+        <v>50.45302963256836</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.8707736730575562</v>
+        <v>0.8707742691040039</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>51.31953811645508</v>
+        <v>51.31952667236328</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>59.61948776245117</v>
+        <v>59.61948013305664</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.2273054271936417</v>
+        <v>-0.2273060381412506</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>48.12014389038086</v>
+        <v>48.12013244628906</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.977667570114136</v>
+        <v>-1.97766637802124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.4098614454269409</v>
+        <v>-0.4098608195781708</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>3.308319091796875</v>
+        <v>3.30832052230835</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>17.99936676025391</v>
+        <v>17.99937438964844</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>48.28387069702148</v>
+        <v>48.28387832641602</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>45.88753509521484</v>
+        <v>45.88752746582031</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>47.05622482299805</v>
+        <v>47.05623626708984</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>42.45121383666992</v>
+        <v>42.45121765136719</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-2.120532274246216</v>
+        <v>-2.12053370475769</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>24.60568428039551</v>
+        <v>24.60568046569824</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>46.22294998168945</v>
+        <v>46.22293853759766</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>52.76888656616211</v>
+        <v>52.76889419555664</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>4.583553314208984</v>
+        <v>4.583552837371826</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.3560608327388763</v>
+        <v>-0.3560620546340942</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>18.7693042755127</v>
+        <v>18.76930618286133</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>45.80744934082031</v>
+        <v>45.80746078491211</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.4256142973899841</v>
+        <v>-0.4256148934364319</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>30.90867614746094</v>
+        <v>30.90866851806641</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.101580373942852</v>
+        <v>-0.1015809923410416</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>57.71590042114258</v>
+        <v>57.71588897705078</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>36.26844787597656</v>
+        <v>36.26844024658203</v>
       </c>
     </row>
     <row r="101" spans="1:6">
